--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_38_4.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_38_4.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_24</t>
+          <t>model_38_4_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999902827595499</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991321612108303</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999526601589576</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999276489909675</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999317925856144</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G2" t="n">
-        <v>9.070617422549478e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008100894159697909</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I2" t="n">
-        <v>6.384798628099733e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J2" t="n">
-        <v>4.977531746237278e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>2.807873534498615e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002162293792579107</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003011746573427033</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000007067083964</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003139962860232703</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P2" t="n">
-        <v>137.2209404462113</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q2" t="n">
-        <v>206.6968624636987</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_23</t>
+          <t>model_38_4_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999902734712396</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991315635475194</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999536402857534</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999275598283469</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999318754252068</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G3" t="n">
-        <v>9.079287652613338e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008106473084360271</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I3" t="n">
-        <v>6.252607389527046e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J3" t="n">
-        <v>4.983665866284957e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>2.804463302618831e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002178730276146645</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003013185631953886</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000007073839098</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003141463182460305</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P3" t="n">
-        <v>137.2190296415679</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q3" t="n">
-        <v>206.6949516590554</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_22</t>
+          <t>model_38_4_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999902589817685</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991308716718259</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999547191937407</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999274494055145</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999931959894501</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G4" t="n">
-        <v>9.092812937777089e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008112931440261605</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I4" t="n">
-        <v>6.107093376697959e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J4" t="n">
-        <v>4.991262624939879e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>2.800985981304837e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002196841607726188</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003015429146535712</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000007084376896</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003143802208102595</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P4" t="n">
-        <v>137.2160524870901</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q4" t="n">
-        <v>206.6919745045775</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_21</t>
+          <t>model_38_4_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999902384747398</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991300779936708</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999559147005347</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999927317687356</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999320456698517</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G5" t="n">
-        <v>9.111955348949906e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000812034007745413</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I5" t="n">
-        <v>5.945853499874037e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J5" t="n">
-        <v>5.000324437952425e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>2.797454893969914e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002216731588313191</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00301860155518245</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000007099291098</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003147109672753216</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P5" t="n">
-        <v>137.2118464641567</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q5" t="n">
-        <v>206.6877684816441</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_20</t>
+          <t>model_38_4_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999902044712418</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991291908992004</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999571975906709</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999271200926358</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999320907137719</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G6" t="n">
-        <v>9.143696121798033e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008128620714946436</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I6" t="n">
-        <v>5.77282809460294e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J6" t="n">
-        <v>5.013918360218506e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.7956005848394e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002239034180589934</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003023854513993362</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000007124020915</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003152586260895832</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P6" t="n">
-        <v>137.2048917290965</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.6808137465839</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_19</t>
+          <t>model_38_4_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999901620087144</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991281530541443</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D7" t="n">
-        <v>0.99995860641435</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999926906681854</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999932143171307</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G7" t="n">
-        <v>9.183333027258898e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008138308542984564</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I7" t="n">
-        <v>5.58281783485297e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J7" t="n">
-        <v>5.028600379939906e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>2.793441081712601e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002263454091738176</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003030401463050547</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000007154902753</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003159411927128435</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P7" t="n">
-        <v>137.1962406887256</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q7" t="n">
-        <v>206.672162706213</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_18</t>
+          <t>model_38_4_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999900964651965</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991270224767067</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999601304071332</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999265731613951</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999321134779644</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G8" t="n">
-        <v>9.244515024081787e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008148861987097311</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I8" t="n">
-        <v>5.377274537342817e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J8" t="n">
-        <v>5.051545584084033e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>2.794663458366655e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002290561698881563</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003040479406949139</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000007202570766</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00316991890996301</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P8" t="n">
-        <v>137.1829603053719</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.6588823228593</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_17</t>
+          <t>model_38_4_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999900137605479</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999125670384408</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999617950366408</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999261853645728</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999320634171815</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G9" t="n">
-        <v>9.321716183283333e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008161483175205857</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I9" t="n">
-        <v>5.152763344168797e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J9" t="n">
-        <v>5.07822483872965e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>2.796724295130742e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002320437633761149</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003053148568819299</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000007262719601</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003183127424282763</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P9" t="n">
-        <v>137.1663276127623</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q9" t="n">
-        <v>206.6422496302498</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_16</t>
+          <t>model_38_4_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999898957351568</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991241642044441</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999635500629532</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999256411476031</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999318955295323</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G10" t="n">
-        <v>9.431887705170783e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008175542704033109</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I10" t="n">
-        <v>4.916060192139847e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J10" t="n">
-        <v>5.115665328917273e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>2.803635674065629e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002353916521072308</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003071137851867087</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00000734855625</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003201882548352844</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P10" t="n">
-        <v>137.1428286010567</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q10" t="n">
-        <v>206.6187506185441</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_15</t>
+          <t>model_38_4_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999897417313889</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C11" t="n">
-        <v>0.999122445392279</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999654527167113</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999249447996873</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999316262722231</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G11" t="n">
-        <v>9.575643462534656e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008191587061122464</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I11" t="n">
-        <v>4.659446294897366e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J11" t="n">
-        <v>5.163571970494784e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>2.814720106444587e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002390626306359444</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003094453661397219</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N11" t="n">
-        <v>1.00000746055899</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003226190960165054</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P11" t="n">
-        <v>137.1125756456041</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q11" t="n">
-        <v>206.5884976630915</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_14</t>
+          <t>model_38_4_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.999989537283885</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991204808489293</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999674733995373</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999240307756611</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999311926057899</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G12" t="n">
-        <v>9.766486233215688e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000820992521095596</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I12" t="n">
-        <v>4.386913632110493e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J12" t="n">
-        <v>5.226454073564377e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>2.832572718387713e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002431474639278618</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003125137794276548</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000007609248084</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003258181380105967</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P12" t="n">
-        <v>137.0731076103896</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q12" t="n">
-        <v>206.549029627877</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_13</t>
+          <t>model_38_4_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999892664272606</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991183083123306</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999696072869874</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999228169719288</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999305279182823</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G13" t="n">
-        <v>1.001931900286421e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008230204886472439</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I13" t="n">
-        <v>4.099112884081049e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J13" t="n">
-        <v>5.309960118498636e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>2.85993570345337e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002477139064580661</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003165330788853545</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00000780623472</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003300085473673076</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P13" t="n">
-        <v>137.0219908568064</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.4979128742938</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999889223348952</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991157038409743</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999718625080666</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999213110681687</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999296389407843</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G14" t="n">
-        <v>1.03405141220374e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008254516483353446</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I14" t="n">
-        <v>3.794947679143084e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J14" t="n">
-        <v>5.413561766528361e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>2.896531965193556e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000252692981228113</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003215666979343073</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000008056483713</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003352564580002022</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P14" t="n">
-        <v>136.958881936906</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q14" t="n">
-        <v>206.4348039543934</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_11</t>
+          <t>model_38_4_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999884700928201</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991128279192159</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999741988781564</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999193068865477</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999283470798411</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G15" t="n">
-        <v>1.076266224799342e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008281361950584443</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I15" t="n">
-        <v>3.479837779825414e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J15" t="n">
-        <v>5.551443432273453e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.949713605127997e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002583167341452037</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003280649668585998</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00000838538704</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003420313716858729</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P15" t="n">
-        <v>136.8788552260338</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q15" t="n">
-        <v>206.3547772435212</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_10</t>
+          <t>model_38_4_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999878963747888</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991094418884996</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999766361685929</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999167967661328</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999266489033348</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G16" t="n">
-        <v>1.129820284688379e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008312969061024284</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I16" t="n">
-        <v>3.15111659504358e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J16" t="n">
-        <v>5.724132164879105e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>3.019621912191731e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002644642548301451</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M16" t="n">
-        <v>0.003361279941760846</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000008802636517</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003504376587690306</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P16" t="n">
-        <v>136.7817337699859</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.2576557874734</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_9</t>
+          <t>model_38_4_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999871636001819</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991054624430935</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999791435793427</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999135851270421</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999243782534446</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G17" t="n">
-        <v>1.198221577731485e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008350115437116045</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I17" t="n">
-        <v>2.812938173592864e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J17" t="n">
-        <v>5.945083271780269e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.113097054013458e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002712034971356644</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0034615337319337</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000009335563504</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O17" t="n">
-        <v>0.003608898389264773</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P17" t="n">
-        <v>136.6641740520182</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q17" t="n">
-        <v>206.1400960695056</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_8</t>
+          <t>model_38_4_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999862287408858</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991008768168227</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999816912334804</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999094834844515</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999213664343566</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G18" t="n">
-        <v>1.285486589463677e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.000839292024549626</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I18" t="n">
-        <v>2.469332063281221e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J18" t="n">
-        <v>6.227263941808741e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>3.23708367898631e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002794899808883931</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00358536830669274</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000010015461174</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O18" t="n">
-        <v>0.003738004858244215</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P18" t="n">
-        <v>136.5235762989133</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q18" t="n">
-        <v>205.9994983164008</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_7</t>
+          <t>model_38_4_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999850367572378</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990956476641895</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999841726845744</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999042356356977</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999173881734745</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G19" t="n">
-        <v>1.39675303080032e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008441732089994538</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I19" t="n">
-        <v>2.134654861331586e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J19" t="n">
-        <v>6.588300147398751e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>3.400855514417336e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002892543099801074</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003737315922959042</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000010882358372</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003896421199109901</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P19" t="n">
-        <v>136.3575503714417</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.8334723889291</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_6</t>
+          <t>model_38_4_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999835305121947</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990895276207261</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999865695522527</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998975892636506</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999122268704552</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G20" t="n">
-        <v>1.537354393932127e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008498860009336243</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I20" t="n">
-        <v>1.811385557346822e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J20" t="n">
-        <v>7.045550547971179e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>3.613329279651922e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003000572763564546</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003920911110867125</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000011977809313</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004087832414261664</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P20" t="n">
-        <v>136.1657249037798</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q20" t="n">
-        <v>205.6416469212672</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_5</t>
+          <t>model_38_4_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999816288724396</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990823977765635</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999887987338514</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998891858752863</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999055698736262</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G21" t="n">
-        <v>1.714864117833275e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008565413974954928</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I21" t="n">
-        <v>1.510732338004344e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J21" t="n">
-        <v>7.623678385004976e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>3.887375809402705e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0003120517910956771</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M21" t="n">
-        <v>0.004141091785789437</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000013360820044</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O21" t="n">
-        <v>0.004317386636352249</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P21" t="n">
-        <v>135.9471832381508</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q21" t="n">
-        <v>205.4231052556382</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_4</t>
+          <t>model_38_4_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999792331741367</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990740327530662</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999907319297406</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998785786698805</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998970216719235</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G22" t="n">
-        <v>1.938492038508047e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008643497797481764</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I22" t="n">
-        <v>1.249999175622393e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J22" t="n">
-        <v>8.353422204093682e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>4.239276985320857e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003253588986134637</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004402830951226774</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000015103146082</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O22" t="n">
-        <v>0.00459026857993702</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P22" t="n">
-        <v>135.7020301877744</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.1779522052618</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_3</t>
+          <t>model_38_4_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999762277226234</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990642734313818</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999922333885922</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998652978113606</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998861718703829</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G23" t="n">
-        <v>2.219037744866361e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008734596781557954</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I23" t="n">
-        <v>1.047495064818071e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J23" t="n">
-        <v>9.267105313482822e-05</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>4.685927409982314e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003401301934150079</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M23" t="n">
-        <v>0.004710666348688219</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000017288929001</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O23" t="n">
-        <v>0.00491120916757552</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4317036226206</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q23" t="n">
-        <v>204.907625640108</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_2</t>
+          <t>model_38_4_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999724713826978</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990529783141087</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D24" t="n">
-        <v>0.999993086000813</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998487775929951</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998725076111936</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G24" t="n">
-        <v>2.569675588494684e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008840031743319327</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I24" t="n">
-        <v>9.325019170244335e-07</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001040364663431516</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>5.248439742281046e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000356630200630691</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M24" t="n">
-        <v>0.005069196769207805</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000020020812583</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O24" t="n">
-        <v>0.005285002970356909</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P24" t="n">
-        <v>135.138291608377</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.6142136258644</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_1</t>
+          <t>model_38_4_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999678085235808</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990399414089431</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999929973879491</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998284304982799</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998554910457148</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G25" t="n">
-        <v>3.004933019485584e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008961725530499227</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I25" t="n">
-        <v>9.444532729957762e-07</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001180346553446745</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>5.948955430883513e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003751695706676295</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005481726935451623</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N25" t="n">
-        <v>1.00002341198285</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O25" t="n">
-        <v>0.005715095399832897</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P25" t="n">
-        <v>134.8253403738403</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q25" t="n">
-        <v>204.3012623913277</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_38_4_0</t>
+          <t>model_38_4_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999620124434718</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990246224460178</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999915711341081</v>
+        <v>0.9998688898941104</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998033819465011</v>
+        <v>0.9998124870067278</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998343270769926</v>
+        <v>0.9998620467351937</v>
       </c>
       <c r="G26" t="n">
-        <v>3.545971655804887e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.000910472132516005</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I26" t="n">
-        <v>1.136814366046197e-06</v>
+        <v>0.0001571851392513486</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001352673053578505</v>
+        <v>8.304504494770721e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>6.820205986194835e-05</v>
+        <v>0.0001201147639809278</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003957445844902682</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M26" t="n">
-        <v>0.005954806173004195</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000027627313839</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O26" t="n">
-        <v>0.006208314599937107</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P26" t="n">
-        <v>134.494226501274</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.9701485187614</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
   </sheetData>
